--- a/data/trans_orig/IP3101-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3101-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174334B2-E23C-4747-AEEE-04EE19870981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{818455C9-0DEE-4C0F-A7F4-F251A3AD56BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5206EE5A-2A04-49D3-88C2-EFD1AC71F954}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D1225E-6BCC-47F7-BDAB-9E6A3AC78446}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="527">
   <si>
     <t>Menores según la frecuencia de tomar fruta en 2007 (Tasa respuesta: 93,35%)</t>
   </si>
@@ -112,1504 +112,1513 @@
     <t>13,76%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar fruta en 2016 (Tasa respuesta: 92,85%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2012 (Tasa respuesta: 92,0%)</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar fruta en 2015 (Tasa respuesta: 92,85%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>16,8%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>53,95%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>54,02%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1A9ECD-609D-4814-8F91-E3E08DB26F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19592E4-DC68-44CD-B33B-B76F41759B3A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2558,13 +2567,13 @@
         <v>17978</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -2573,13 +2582,13 @@
         <v>33324</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2603,13 @@
         <v>11456</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2609,13 +2618,13 @@
         <v>12697</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2624,13 +2633,13 @@
         <v>24153</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2654,13 @@
         <v>33971</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2660,13 +2669,13 @@
         <v>39493</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -2675,13 +2684,13 @@
         <v>73465</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2746,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2749,13 +2758,13 @@
         <v>26035</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2764,13 +2773,13 @@
         <v>25908</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2779,13 +2788,13 @@
         <v>51943</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2809,13 @@
         <v>45726</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2815,13 +2824,13 @@
         <v>34265</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -2830,10 +2839,10 @@
         <v>79991</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>85</v>
@@ -3114,7 +3123,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -3123,13 +3132,13 @@
         <v>6418</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -3138,7 +3147,7 @@
         <v>15352</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>129</v>
@@ -3449,10 +3458,10 @@
         <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3476,13 @@
         <v>122121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>175</v>
@@ -3482,13 +3491,13 @@
         <v>118946</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="M30" s="7">
         <v>358</v>
@@ -3503,7 +3512,7 @@
         <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3527,10 @@
         <v>147737</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>184</v>
@@ -3536,10 +3545,10 @@
         <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>412</v>
@@ -3548,13 +3557,13 @@
         <v>274441</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3578,13 @@
         <v>297644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>449</v>
@@ -3584,13 +3593,13 @@
         <v>299949</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>899</v>
@@ -3599,13 +3608,13 @@
         <v>597593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3670,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECFF04A-ED24-470F-BA73-6ACD24A4AE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752687FD-87E2-4E20-8E5B-0D13309052C9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3698,7 +3707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4110,13 @@
         <v>3174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4116,13 +4125,13 @@
         <v>2000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4131,13 +4140,13 @@
         <v>5175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4161,13 @@
         <v>11017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4167,13 +4176,13 @@
         <v>8404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -4182,13 +4191,13 @@
         <v>19421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4212,13 @@
         <v>21131</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -4218,13 +4227,13 @@
         <v>16469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -4233,13 +4242,13 @@
         <v>37600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4263,13 @@
         <v>10870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4269,13 +4278,13 @@
         <v>7757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4338,10 +4347,10 @@
         <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4409,13 +4418,13 @@
         <v>18583</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4424,13 +4433,13 @@
         <v>12559</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4439,13 +4448,13 @@
         <v>31142</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4469,13 @@
         <v>31294</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4475,13 +4484,13 @@
         <v>29778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -4490,13 +4499,13 @@
         <v>61072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4520,13 @@
         <v>73640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -4526,13 +4535,13 @@
         <v>70309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>207</v>
@@ -4541,13 +4550,13 @@
         <v>143949</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4571,13 @@
         <v>73872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -4577,13 +4586,13 @@
         <v>76625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -4592,13 +4601,13 @@
         <v>150497</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4622,13 @@
         <v>254898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
@@ -4628,13 +4637,13 @@
         <v>224354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>693</v>
@@ -4643,13 +4652,13 @@
         <v>479252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4685,7 @@
         <v>599</v>
       </c>
       <c r="I21" s="7">
-        <v>413626</v>
+        <v>413625</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -4717,13 +4726,13 @@
         <v>3637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4732,13 +4741,13 @@
         <v>1284</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4747,13 +4756,13 @@
         <v>4921</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4777,13 @@
         <v>7682</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4783,13 +4792,13 @@
         <v>6959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -4798,10 +4807,10 @@
         <v>14641</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>303</v>
@@ -4852,10 +4861,10 @@
         <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,10 +4879,10 @@
         <v>27043</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>314</v>
@@ -4891,7 +4900,7 @@
         <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -4900,13 +4909,13 @@
         <v>48477</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4930,13 @@
         <v>96631</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -4936,13 +4945,13 @@
         <v>106130</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>283</v>
@@ -4951,13 +4960,13 @@
         <v>202761</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5034,13 @@
         <v>25394</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -5040,13 +5049,13 @@
         <v>15844</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -5055,13 +5064,13 @@
         <v>41238</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5085,13 @@
         <v>49993</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5091,13 +5100,13 @@
         <v>45141</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M29" s="7">
         <v>139</v>
@@ -5106,13 +5115,13 @@
         <v>95134</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5136,13 @@
         <v>114766</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H30" s="7">
         <v>147</v>
@@ -5142,13 +5151,13 @@
         <v>104286</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>314</v>
@@ -5196,10 +5205,10 @@
         <v>357</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -5208,13 +5217,13 @@
         <v>217601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>361</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5238,13 @@
         <v>388603</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H32" s="7">
         <v>559</v>
@@ -5244,13 +5253,13 @@
         <v>384667</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M32" s="7">
         <v>1106</v>
@@ -5259,13 +5268,13 @@
         <v>773269</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5330,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +5350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4784B2-48C8-43FF-A53C-D410742BE010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5EB356-8CB3-4E5C-AF35-CFB800F047B0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5358,7 +5367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5746,13 @@
         <v>3942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5752,13 +5761,13 @@
         <v>1453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5767,13 +5776,13 @@
         <v>5395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5797,13 @@
         <v>3394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5806,10 +5815,10 @@
         <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5818,13 +5827,13 @@
         <v>5854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5848,13 @@
         <v>5932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5854,13 +5863,13 @@
         <v>9742</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -5869,13 +5878,13 @@
         <v>15674</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5899,13 @@
         <v>9489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5905,13 +5914,13 @@
         <v>7476</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -5920,13 +5929,13 @@
         <v>16965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5950,13 @@
         <v>43836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5956,13 +5965,13 @@
         <v>35024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5971,13 +5980,13 @@
         <v>78860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6042,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6045,13 +6054,13 @@
         <v>16612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6060,13 +6069,13 @@
         <v>9118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6075,13 +6084,13 @@
         <v>25731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6105,13 @@
         <v>31361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -6111,13 +6120,13 @@
         <v>28918</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -6126,13 +6135,13 @@
         <v>60279</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6156,13 @@
         <v>71320</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -6162,13 +6171,13 @@
         <v>67639</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -6177,13 +6186,13 @@
         <v>138959</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6207,13 @@
         <v>111329</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -6213,13 +6222,13 @@
         <v>108046</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -6228,13 +6237,13 @@
         <v>219375</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6377,13 @@
         <v>1364</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -6383,13 +6392,13 @@
         <v>6110</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6413,13 @@
         <v>8269</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -6434,13 +6443,13 @@
         <v>15039</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6464,13 @@
         <v>22648</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -6470,13 +6479,13 @@
         <v>26079</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
@@ -6485,13 +6494,13 @@
         <v>48727</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6515,13 @@
         <v>31337</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6521,13 +6530,13 @@
         <v>31527</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -6536,13 +6545,13 @@
         <v>62864</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6566,13 @@
         <v>102196</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H26" s="7">
         <v>140</v>
@@ -6572,13 +6581,13 @@
         <v>91621</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -6587,13 +6596,13 @@
         <v>193818</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6670,13 @@
         <v>25300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -6676,13 +6685,13 @@
         <v>11935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>492</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -6691,13 +6700,13 @@
         <v>37235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6736,13 @@
         <v>38146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>261</v>
+        <v>496</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M29" s="7">
         <v>120</v>
@@ -6742,13 +6751,13 @@
         <v>81172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>499</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>498</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6772,13 @@
         <v>99900</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>151</v>
@@ -6778,13 +6787,13 @@
         <v>103461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>291</v>
@@ -6793,13 +6802,13 @@
         <v>203360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6823,13 @@
         <v>152155</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H31" s="7">
         <v>217</v>
@@ -6829,13 +6838,13 @@
         <v>147049</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>431</v>
@@ -6844,13 +6853,13 @@
         <v>299204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6874,13 @@
         <v>375301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>537</v>
@@ -6880,13 +6889,13 @@
         <v>354229</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>1078</v>
@@ -6895,13 +6904,13 @@
         <v>729529</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,7 +6966,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
